--- a/FogliCalcolo/Piping/AnalisiCosti.xlsx
+++ b/FogliCalcolo/Piping/AnalisiCosti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\Piping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giona\Desktop\git\ImpiantiMeccanici\FogliCalcolo\Piping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB88AF18-2B53-4DAC-847E-7A9F1827A012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D70756-4183-4DB7-8905-EA65847AA221}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4838DA5B-86D2-4DCE-B236-8E6E57FABD5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4838DA5B-86D2-4DCE-B236-8E6E57FABD5C}"/>
   </bookViews>
   <sheets>
     <sheet name="C. impianto coibentato" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -526,12 +526,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -664,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -673,12 +679,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -692,6 +696,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,8 +707,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -790,7 +799,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1219,7 +1228,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1755267792"/>
@@ -1278,7 +1287,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1755266128"/>
@@ -1320,7 +1329,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1350,7 +1359,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1426,7 +1435,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1723,7 +1732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1695991392"/>
@@ -1782,7 +1791,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1695982240"/>
@@ -1824,7 +1833,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1861,7 +1870,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3316,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676F6950-C9DA-4296-90A9-030D9A314E9A}">
   <dimension ref="B3:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,7 +3334,7 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="10" customWidth="1"/>
     <col min="8" max="10" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
     <col min="13" max="15" width="9.7109375" customWidth="1"/>
@@ -3365,7 +3374,7 @@
       <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="30">
         <v>800</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -3377,7 +3386,7 @@
       <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="30">
         <v>600</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -3389,7 +3398,7 @@
       <c r="M7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="30">
         <v>400</v>
       </c>
       <c r="O7" s="3" t="s">
@@ -3403,7 +3412,7 @@
       <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="31">
         <v>300</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -3415,7 +3424,7 @@
       <c r="H8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="31">
         <v>300</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -3427,7 +3436,7 @@
       <c r="M8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="31">
         <v>300</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -3441,7 +3450,7 @@
       <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="31">
         <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -3453,7 +3462,7 @@
       <c r="H9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="31">
         <v>20</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -3465,7 +3474,7 @@
       <c r="M9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="31">
         <v>20</v>
       </c>
       <c r="O9" s="6" t="s">
@@ -3479,7 +3488,7 @@
       <c r="C10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="31">
         <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -3491,7 +3500,7 @@
       <c r="H10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="31">
         <v>40</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -3503,7 +3512,7 @@
       <c r="M10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="31">
         <v>58</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -3517,7 +3526,7 @@
       <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="31">
         <v>108</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -3529,7 +3538,7 @@
       <c r="H11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="31">
         <v>108</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -3542,7 +3551,7 @@
       <c r="M11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="31">
         <v>108</v>
       </c>
       <c r="O11" s="6" t="s">
@@ -3556,38 +3565,38 @@
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="32">
         <v>1000</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="32">
         <v>1000</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="32">
         <v>1000</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="P12" s="5"/>
@@ -3608,7 +3617,7 @@
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="30">
         <v>10</v>
       </c>
       <c r="E14" s="3"/>
@@ -3618,7 +3627,7 @@
       <c r="H14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="30">
         <v>10</v>
       </c>
       <c r="J14" s="3"/>
@@ -3629,7 +3638,7 @@
       <c r="M14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="30">
         <v>10</v>
       </c>
       <c r="O14" s="3"/>
@@ -3644,7 +3653,7 @@
       <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="33">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="6"/>
@@ -3654,7 +3663,7 @@
       <c r="H15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="33">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J15" s="6"/>
@@ -3665,7 +3674,7 @@
       <c r="M15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="33">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O15" s="6"/>
@@ -3722,38 +3731,38 @@
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="34">
         <v>0.155</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="34">
         <v>0.155</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="34">
         <v>0.155</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="P17" s="5"/>
@@ -3781,7 +3790,7 @@
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="30">
         <v>7.6</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -3793,7 +3802,7 @@
       <c r="H20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="30">
         <v>15</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -3806,7 +3815,7 @@
       <c r="M20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="30">
         <v>8</v>
       </c>
       <c r="O20" s="3" t="s">
@@ -3823,20 +3832,20 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="31">
         <v>41860</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="31">
         <v>41860</v>
       </c>
       <c r="J21" s="6" t="s">
@@ -3849,7 +3858,7 @@
       <c r="M21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="31">
         <v>41860</v>
       </c>
       <c r="O21" s="6" t="s">
@@ -3866,7 +3875,7 @@
       <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="31">
         <v>0.42099999999999999</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -3878,7 +3887,7 @@
       <c r="H22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="31">
         <v>0.42099999999999999</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -3891,7 +3900,7 @@
       <c r="M22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="31">
         <v>0.42099999999999999</v>
       </c>
       <c r="O22" s="6" t="s">
@@ -3905,20 +3914,20 @@
       <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="31">
         <v>0.85</v>
       </c>
       <c r="E23" s="6"/>
       <c r="G23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="31">
         <v>0.85</v>
       </c>
       <c r="J23" s="6"/>
@@ -3926,10 +3935,10 @@
       <c r="L23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="31">
         <v>0.85</v>
       </c>
       <c r="O23" s="6"/>
@@ -3941,38 +3950,38 @@
       <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="34">
         <v>3200</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="34">
         <v>3200</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>38</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="34">
         <v>3200</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" s="8" t="s">
         <v>38</v>
       </c>
       <c r="P24" s="5"/>
@@ -3987,25 +3996,25 @@
       <c r="R25" s="5"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="3"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="3"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="30"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="3"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -4018,7 +4027,7 @@
       <c r="C27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <f>750*(D7/750)^(2/3)</f>
         <v>782.97352823377264</v>
       </c>
@@ -4032,7 +4041,7 @@
       <c r="H27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <f>750*(I7/750)^(2/3)</f>
         <v>646.33040700956519</v>
       </c>
@@ -4046,7 +4055,7 @@
       <c r="M27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="11">
         <f>750*(N7/750)^(2/3)</f>
         <v>493.24241486609401</v>
       </c>
@@ -4064,7 +4073,7 @@
       <c r="C28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f>D9*D8</f>
         <v>9000</v>
       </c>
@@ -4078,7 +4087,7 @@
       <c r="H28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <f>I9*I8</f>
         <v>6000</v>
       </c>
@@ -4092,7 +4101,7 @@
       <c r="M28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="11">
         <f>N9*N8</f>
         <v>6000</v>
       </c>
@@ -4110,7 +4119,7 @@
       <c r="C29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <f>PI()*D12*D8*((D11*0.001 + D10*0.001)^2 - (D11*0.001)^2)</f>
         <v>15607.432303034091</v>
       </c>
@@ -4124,7 +4133,7 @@
       <c r="H29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <f>PI()*I12*I8*((I11*0.001 + I10*0.001)^2 - (I11*0.001)^2)</f>
         <v>9650.9726318278426</v>
       </c>
@@ -4138,7 +4147,7 @@
       <c r="M29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="11">
         <f>PI()*N12*N8*((N11*0.001 + N10*0.001)^2 - (N11*0.001)^2)</f>
         <v>14977.857135254701</v>
       </c>
@@ -4150,33 +4159,33 @@
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="20">
+      <c r="B30" s="17"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="18">
         <f>SUM(D27:D29)</f>
         <v>25390.405831267864</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="20">
+      <c r="G30" s="17"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="18">
         <f>SUM(I27:I29)</f>
         <v>16297.303038837408</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="19" t="s">
         <v>8</v>
       </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="20">
+      <c r="L30" s="17"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="18">
         <f>SUM(N27:N29)</f>
         <v>21471.099550120794</v>
       </c>
-      <c r="O30" s="21" t="s">
+      <c r="O30" s="19" t="s">
         <v>8</v>
       </c>
       <c r="P30" s="5"/>
@@ -4203,26 +4212,26 @@
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="12" t="s">
         <v>15</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="16"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="14"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -4234,7 +4243,7 @@
       <c r="C33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*D27</f>
         <v>111.47781565155833</v>
       </c>
@@ -4248,7 +4257,7 @@
       <c r="H33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*I27</f>
         <v>92.022909286783118</v>
       </c>
@@ -4262,7 +4271,7 @@
       <c r="M33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="11">
         <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*N27</f>
         <v>70.226623267849263</v>
       </c>
@@ -4280,7 +4289,7 @@
       <c r="C34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*D28</f>
         <v>1281.3975245462825</v>
       </c>
@@ -4294,7 +4303,7 @@
       <c r="H34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*I28</f>
         <v>854.26501636418823</v>
       </c>
@@ -4308,7 +4317,7 @@
       <c r="M34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="11">
         <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*N28</f>
         <v>854.26501636418823</v>
       </c>
@@ -4326,7 +4335,7 @@
       <c r="C35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*D29</f>
         <v>2222.1472352923965</v>
       </c>
@@ -4340,7 +4349,7 @@
       <c r="H35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*I29</f>
         <v>1374.0813822097909</v>
       </c>
@@ -4354,7 +4363,7 @@
       <c r="M35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="11">
         <f>(1+$D$15)^$D$14*$D$15/((1+$D$15)^$D$14-1)*N29</f>
         <v>2132.5098951248051</v>
       </c>
@@ -4372,7 +4381,7 @@
       <c r="C36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <f>D16*D7*0.001*D17</f>
         <v>543.12</v>
       </c>
@@ -4386,7 +4395,7 @@
       <c r="H36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <f>I16*I7*0.001*I17</f>
         <v>407.34</v>
       </c>
@@ -4400,7 +4409,7 @@
       <c r="M36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="11">
         <f>N16*N7*0.001*N17</f>
         <v>271.56</v>
       </c>
@@ -4412,13 +4421,13 @@
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="2:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <f>D20/(D23*D21)*D24*D22*3600</f>
         <v>1035.9290632641014</v>
       </c>
@@ -4426,13 +4435,13 @@
         <v>8</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="11">
         <f>I20/(I23*I21)*I24*I22*3600</f>
         <v>2044.5968353896744</v>
       </c>
@@ -4440,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="18" t="s">
+      <c r="L37" s="16" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="11">
         <f>N20/(N23*N21)*N24*N22*3600</f>
         <v>1090.4516455411595</v>
       </c>
@@ -4458,33 +4467,33 @@
       <c r="R37" s="5"/>
     </row>
     <row r="38" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="20">
+      <c r="B38" s="17"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="18">
         <f>SUM(D33:D37)</f>
         <v>5194.0716387543389</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="20">
+      <c r="G38" s="17"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="18">
         <f>SUM(I33:I37)</f>
         <v>4772.3061432504364</v>
       </c>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="19" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="20">
+      <c r="L38" s="17"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="18">
         <f>SUM(N33:N37)</f>
         <v>4419.0131802980013</v>
       </c>
-      <c r="O38" s="21" t="s">
+      <c r="O38" s="19" t="s">
         <v>8</v>
       </c>
       <c r="P38" s="5"/>
@@ -4498,12 +4507,12 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="12"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="12"/>
+      <c r="M39" s="11"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -4517,12 +4526,12 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="12"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="12"/>
+      <c r="M40" s="11"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -4531,12 +4540,12 @@
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G41" s="5"/>
-      <c r="H41" s="12"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="12"/>
+      <c r="M41" s="11"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -4544,13 +4553,13 @@
       <c r="R41" s="5"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G42" s="25"/>
-      <c r="H42" s="12"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="12"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="11"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -4559,12 +4568,12 @@
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G43" s="5"/>
-      <c r="H43" s="12"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="12"/>
+      <c r="M43" s="11"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -4572,7 +4581,7 @@
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G44" s="12"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -4600,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C3C5A1-6A59-4F28-89E2-0E2617183338}">
   <dimension ref="B9:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4626,15 +4635,15 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="12" cm="1">
+      <c r="C11" s="11" cm="1">
         <f t="array" ref="C11:C13">'C. impianto coibentato'!D27:D29</f>
         <v>782.97352823377264</v>
       </c>
-      <c r="D11" s="12" cm="1">
+      <c r="D11" s="11" cm="1">
         <f t="array" ref="D11:D13">'C. impianto coibentato'!I27:I29</f>
         <v>646.33040700956519</v>
       </c>
-      <c r="E11" s="31" cm="1">
+      <c r="E11" s="26" cm="1">
         <f t="array" ref="E11:E13">'C. impianto coibentato'!N27:N29</f>
         <v>493.24241486609401</v>
       </c>
@@ -4657,13 +4666,13 @@
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>15607.432303034091</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>9650.9726318278426</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>14977.857135254701</v>
       </c>
     </row>
@@ -4684,15 +4693,15 @@
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="12" cm="1">
+      <c r="C20" s="11" cm="1">
         <f t="array" ref="C20:C24">'C. impianto coibentato'!D33:D37</f>
         <v>111.47781565155833</v>
       </c>
-      <c r="D20" s="12" cm="1">
+      <c r="D20" s="11" cm="1">
         <f t="array" ref="D20:D24">'C. impianto coibentato'!I33:I37</f>
         <v>92.022909286783118</v>
       </c>
-      <c r="E20" s="31" cm="1">
+      <c r="E20" s="26" cm="1">
         <f t="array" ref="E20:E24">'C. impianto coibentato'!N33:N37</f>
         <v>70.226623267849263</v>
       </c>
@@ -4740,16 +4749,16 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>1035.9290632641014</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>2044.5968353896744</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>1090.4516455411595</v>
       </c>
     </row>
